--- a/Projetos/Projeto 02 - Análise Cohort Com Excel/Planilha Análise Cohort Retenção de Clientes Compras.xlsx
+++ b/Projetos/Projeto 02 - Análise Cohort Com Excel/Planilha Análise Cohort Retenção de Clientes Compras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edutr\OneDrive\Documentos\Portifólio\GitHub\Analise_Dados\Projetos\Projeto 02 - Análise Cohort Com Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C122DB34-3F19-405B-A36F-0998EFE438CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224627BD-56AF-4505-B25E-DA1F6F973D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{11706412-9C5A-4854-89B5-859A677D4F19}"/>
   </bookViews>
@@ -92,13 +92,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>132708</xdr:rowOff>
+      <xdr:rowOff>132709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>91439</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -128,8 +128,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="213360" y="132708"/>
-          <a:ext cx="8808720" cy="4347851"/>
+          <a:off x="213360" y="132709"/>
+          <a:ext cx="5280660" cy="2606454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>105613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Análise Cohort: como fazer e por que é importante para PMs">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE91538-6D51-4404-8459-81AF44427535}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5798820" y="297180"/>
+          <a:ext cx="6637020" cy="4380433"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,7 +532,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Projetos/Projeto 02 - Análise Cohort Com Excel/Planilha Análise Cohort Retenção de Clientes Compras.xlsx
+++ b/Projetos/Projeto 02 - Análise Cohort Com Excel/Planilha Análise Cohort Retenção de Clientes Compras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edutr\OneDrive\Documentos\Portifólio\GitHub\Analise_Dados\Projetos\Projeto 02 - Análise Cohort Com Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224627BD-56AF-4505-B25E-DA1F6F973D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38E12D1-ABF7-4AEB-8C91-3B70ACCB1C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{11706412-9C5A-4854-89B5-859A677D4F19}"/>
   </bookViews>
@@ -90,15 +90,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>132709</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>261410</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>178843</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -128,8 +128,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="213360" y="132709"/>
-          <a:ext cx="5280660" cy="2606454"/>
+          <a:off x="220980" y="0"/>
+          <a:ext cx="5526830" cy="2727960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -150,16 +150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>105613</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297181</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -189,8 +189,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5798820" y="297180"/>
-          <a:ext cx="6637020" cy="4380433"/>
+          <a:off x="1" y="3267912"/>
+          <a:ext cx="5173980" cy="3414827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3" descr="Cohort Analysis: o que é e como usar - Homem Máquina">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BDA6A2-4E11-48AE-8B84-3A413A16AF0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6019800" y="121920"/>
+          <a:ext cx="5280660" cy="2606454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -531,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1FD94B-1101-46A0-BD0E-2E09C89E2A1A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
